--- a/docss/trend/slovenia/E_huntington.xlsx
+++ b/docss/trend/slovenia/E_huntington.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elena\Desktop\IC3-Design\docs\trend\slovenia\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ELENA\Desktop\revisado\slovenia\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18075" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12135" windowHeight="10965" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -1559,7 +1559,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="B1" sqref="B1:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1583,13 +1583,13 @@
         <v>1999</v>
       </c>
       <c r="B2" s="7">
-        <v>0.1299358569085598</v>
+        <v>0.13</v>
       </c>
       <c r="C2" s="7">
-        <v>0.10600706189870834</v>
+        <v>0.106</v>
       </c>
       <c r="D2" s="7">
-        <v>0.12585079669952393</v>
+        <v>0.126</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1597,10 +1597,10 @@
         <v>2000</v>
       </c>
       <c r="B3" s="7">
-        <v>3.5782016813755035E-2</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="C3" s="7">
-        <v>0.1157742366194725</v>
+        <v>0.11600000000000001</v>
       </c>
       <c r="D3" s="7">
         <v>0</v>
@@ -1611,13 +1611,13 @@
         <v>2001</v>
       </c>
       <c r="B4" s="7">
-        <v>0.13738745450973511</v>
+        <v>0.13700000000000001</v>
       </c>
       <c r="C4" s="7">
-        <v>8.8335879147052765E-2</v>
+        <v>8.7999999999999995E-2</v>
       </c>
       <c r="D4" s="7">
-        <v>0.17771430313587189</v>
+        <v>0.17799999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1625,13 +1625,13 @@
         <v>2002</v>
       </c>
       <c r="B5" s="7">
-        <v>0.18618904054164886</v>
+        <v>0.186</v>
       </c>
       <c r="C5" s="7">
-        <v>0.20070245862007141</v>
+        <v>0.20100000000000001</v>
       </c>
       <c r="D5" s="7">
-        <v>0.18436092138290405</v>
+        <v>0.184</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1639,13 +1639,13 @@
         <v>2003</v>
       </c>
       <c r="B6" s="7">
-        <v>0.10206635668873787</v>
+        <v>0.10199999999999999</v>
       </c>
       <c r="C6" s="7">
-        <v>9.151642769575119E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="D6" s="7">
-        <v>0.10914449393749237</v>
+        <v>0.109</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1653,10 +1653,10 @@
         <v>2004</v>
       </c>
       <c r="B7" s="7">
-        <v>9.2990346252918243E-2</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="C7" s="7">
-        <v>0.18122552335262299</v>
+        <v>0.18099999999999999</v>
       </c>
       <c r="D7" s="7">
         <v>0</v>
@@ -1667,13 +1667,13 @@
         <v>2005</v>
       </c>
       <c r="B8" s="7">
-        <v>0.14703120291233063</v>
+        <v>0.14699999999999999</v>
       </c>
       <c r="C8" s="7">
-        <v>9.7839377820491791E-2</v>
+        <v>9.8000000000000004E-2</v>
       </c>
       <c r="D8" s="7">
-        <v>0.19640578329563141</v>
+        <v>0.19600000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1681,13 +1681,13 @@
         <v>2006</v>
       </c>
       <c r="B9" s="7">
-        <v>0.22019229084253311</v>
+        <v>0.22</v>
       </c>
       <c r="C9" s="7">
-        <v>0.35154172778129578</v>
+        <v>0.35199999999999998</v>
       </c>
       <c r="D9" s="7">
-        <v>7.6429225504398346E-2</v>
+        <v>7.5999999999999998E-2</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1695,13 +1695,13 @@
         <v>2007</v>
       </c>
       <c r="B10" s="7">
-        <v>0.22534786909818649</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="C10" s="7">
-        <v>0.17788055539131165</v>
+        <v>0.17799999999999999</v>
       </c>
       <c r="D10" s="7">
-        <v>0.28162197023630142</v>
+        <v>0.28199999999999997</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1709,13 +1709,13 @@
         <v>2008</v>
       </c>
       <c r="B11" s="7">
-        <v>0.17854496836662292</v>
+        <v>0.17899999999999999</v>
       </c>
       <c r="C11" s="7">
-        <v>8.2587748765945435E-2</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="D11" s="7">
-        <v>0.24352480471134186</v>
+        <v>0.24399999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1723,13 +1723,13 @@
         <v>2009</v>
       </c>
       <c r="B12" s="7">
-        <v>0.11870119534432888</v>
+        <v>0.11899999999999999</v>
       </c>
       <c r="C12" s="7">
         <v>0</v>
       </c>
       <c r="D12" s="7">
-        <v>0.19766860455274582</v>
+        <v>0.19800000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1737,13 +1737,13 @@
         <v>2010</v>
       </c>
       <c r="B13" s="7">
-        <v>0.20499904081225395</v>
+        <v>0.20499999999999999</v>
       </c>
       <c r="C13" s="7">
-        <v>0.25437681376934052</v>
+        <v>0.254</v>
       </c>
       <c r="D13" s="7">
-        <v>0.15815488249063492</v>
+        <v>0.158</v>
       </c>
     </row>
   </sheetData>
